--- a/mbak Raras/Port-Py/temp knowledge.xlsx
+++ b/mbak Raras/Port-Py/temp knowledge.xlsx
@@ -8,27 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tugas Akhir\mbak Raras\Port-Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029BCDDE-F996-4A09-BD0D-81AB85FE1038}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14540C6C-D378-4E50-9554-834FA860E0E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="SUM" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Matlab Sum vs Python Sum</t>
-  </si>
-  <si>
-    <t>still wrong result</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,8 +499,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -867,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:DV127"/>
+  <dimension ref="A2:DV128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="CX1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:DT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,6 +2095,9 @@
       </c>
     </row>
     <row r="6" spans="1:126" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>198765</v>
+      </c>
       <c r="E6">
         <v>132511</v>
       </c>
@@ -2466,6 +2460,10 @@
       </c>
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f>IF(D6&lt;&gt;D3, "no match", "sama")</f>
+        <v>sama</v>
+      </c>
       <c r="E7" t="str">
         <f>IF(E6&lt;&gt;E3, "no match", "sama")</f>
         <v>sama</v>
@@ -2949,497 +2947,497 @@
     </row>
     <row r="8" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>132511</v>
+        <v>198765</v>
       </c>
     </row>
     <row r="9" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>66257</v>
+        <v>132511</v>
       </c>
     </row>
     <row r="10" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>66257</v>
       </c>
     </row>
     <row r="11" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>209</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>328</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>401</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>497</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>597</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>696</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>790</v>
+        <v>696</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>899</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1018</v>
+        <v>899</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1147</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1279</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1422</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1524</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1580</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1596</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1612</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1622</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1587</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1526</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1439</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1331</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1190</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1043</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>912</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>797</v>
+        <v>912</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>662</v>
+        <v>797</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>526</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>403</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>327</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>269</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>219</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -3449,27 +3447,27 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -3479,7 +3477,7 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
@@ -3489,32 +3487,32 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
@@ -3524,17 +3522,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
@@ -3544,6 +3542,11 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>0</v>
       </c>
     </row>
@@ -3554,22 +3557,1251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD7F89-8738-4A8B-8FB1-62F9821E088F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:DQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
+      <selection activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="100" width="9" bestFit="1" customWidth="1"/>
+    <col min="101" max="105" width="12" bestFit="1" customWidth="1"/>
+    <col min="106" max="108" width="11" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="12" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="11" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10" bestFit="1" customWidth="1"/>
+    <col min="120" max="122" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.45377961330621103</v>
+      </c>
+      <c r="B1">
+        <v>0.302522025199705</v>
+      </c>
+      <c r="C1">
+        <v>0.15126443709319901</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6.8489866924188599E-6</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4.5659911282792397E-6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2.2829955641396198E-6</v>
+      </c>
+      <c r="G1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="H1" s="1">
+        <v>2.2829955641396198E-6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>9.1319822565584793E-6</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2.05469600772566E-5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2.7395946769675399E-5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>4.3376915718652801E-5</v>
+      </c>
+      <c r="M1" s="1">
+        <v>7.5338853616607401E-5</v>
+      </c>
+      <c r="N1">
+        <v>1.23281760463539E-4</v>
+      </c>
+      <c r="O1">
+        <v>1.5524369836149399E-4</v>
+      </c>
+      <c r="P1">
+        <v>1.71224667310471E-4</v>
+      </c>
+      <c r="Q1">
+        <v>1.8263964513117001E-4</v>
+      </c>
+      <c r="R1">
+        <v>2.2145056972154299E-4</v>
+      </c>
+      <c r="S1">
+        <v>2.6482748544019599E-4</v>
+      </c>
+      <c r="T1">
+        <v>3.4473233018508201E-4</v>
+      </c>
+      <c r="U1">
+        <v>4.13222197109271E-4</v>
+      </c>
+      <c r="V1">
+        <v>5.0910801080313495E-4</v>
+      </c>
+      <c r="W1">
+        <v>5.6846589547076502E-4</v>
+      </c>
+      <c r="X1">
+        <v>6.1869179788183698E-4</v>
+      </c>
+      <c r="Y1">
+        <v>6.3010677570253504E-4</v>
+      </c>
+      <c r="Z1">
+        <v>6.4608774465151205E-4</v>
+      </c>
+      <c r="AA1">
+        <v>6.5978571803634997E-4</v>
+      </c>
+      <c r="AB1">
+        <v>6.6435170916462902E-4</v>
+      </c>
+      <c r="AC1">
+        <v>6.50653735779791E-4</v>
+      </c>
+      <c r="AD1">
+        <v>6.6435170916462902E-4</v>
+      </c>
+      <c r="AE1">
+        <v>7.1914360270398004E-4</v>
+      </c>
+      <c r="AF1">
+        <v>7.7165250067919098E-4</v>
+      </c>
+      <c r="AG1">
+        <v>7.8306747849988905E-4</v>
+      </c>
+      <c r="AH1">
+        <v>7.4425655390951602E-4</v>
+      </c>
+      <c r="AI1">
+        <v>7.1686060713983997E-4</v>
+      </c>
+      <c r="AJ1">
+        <v>6.9403065149844395E-4</v>
+      </c>
+      <c r="AK1">
+        <v>7.1229461601156102E-4</v>
+      </c>
+      <c r="AL1">
+        <v>7.0087963819086296E-4</v>
+      </c>
+      <c r="AM1">
+        <v>6.8489866924188595E-4</v>
+      </c>
+      <c r="AN1">
+        <v>6.1640880231769702E-4</v>
+      </c>
+      <c r="AO1">
+        <v>5.6389990434248596E-4</v>
+      </c>
+      <c r="AP1">
+        <v>5.2052298862383301E-4</v>
+      </c>
+      <c r="AQ1">
+        <v>4.9769303298243699E-4</v>
+      </c>
+      <c r="AR1">
+        <v>4.5888210839206299E-4</v>
+      </c>
+      <c r="AS1">
+        <v>4.0180721928857299E-4</v>
+      </c>
+      <c r="AT1">
+        <v>3.5843030356991998E-4</v>
+      </c>
+      <c r="AU1">
+        <v>3.6984528139061799E-4</v>
+      </c>
+      <c r="AV1">
+        <v>4.1778818823755E-4</v>
+      </c>
+      <c r="AW1">
+        <v>4.7714607290518001E-4</v>
+      </c>
+      <c r="AX1">
+        <v>4.9769303298243699E-4</v>
+      </c>
+      <c r="AY1">
+        <v>4.8399505959759902E-4</v>
+      </c>
+      <c r="AZ1">
+        <v>4.4061814387894602E-4</v>
+      </c>
+      <c r="BA1">
+        <v>4.13222197109271E-4</v>
+      </c>
+      <c r="BB1">
+        <v>4.4061814387894602E-4</v>
+      </c>
+      <c r="BC1">
+        <v>4.9997602854657695E-4</v>
+      </c>
+      <c r="BD1">
+        <v>5.6846589547076502E-4</v>
+      </c>
+      <c r="BE1">
+        <v>6.3923875795909304E-4</v>
+      </c>
+      <c r="BF1">
+        <v>7.4882254503779496E-4</v>
+      </c>
+      <c r="BG1">
+        <v>9.1548122121998699E-4</v>
+      </c>
+      <c r="BH1">
+        <v>1.1346487953773901E-3</v>
+      </c>
+      <c r="BI1">
+        <v>1.3629483517913501E-3</v>
+      </c>
+      <c r="BJ1">
+        <v>1.5889649126411701E-3</v>
+      </c>
+      <c r="BK1">
+        <v>1.8035664956703001E-3</v>
+      </c>
+      <c r="BL1">
+        <v>2.0524130121615199E-3</v>
+      </c>
+      <c r="BM1">
+        <v>2.3240894842941301E-3</v>
+      </c>
+      <c r="BN1">
+        <v>2.6185959120681398E-3</v>
+      </c>
+      <c r="BO1">
+        <v>2.9199513265345698E-3</v>
+      </c>
+      <c r="BP1">
+        <v>3.2464196922065399E-3</v>
+      </c>
+      <c r="BQ1">
+        <v>3.4792852397487798E-3</v>
+      </c>
+      <c r="BR1">
+        <v>3.6071329913406002E-3</v>
+      </c>
+      <c r="BS1">
+        <v>3.64366092036683E-3</v>
+      </c>
+      <c r="BT1">
+        <v>3.6801888493930698E-3</v>
+      </c>
+      <c r="BU1">
+        <v>3.7030188050344599E-3</v>
+      </c>
+      <c r="BV1">
+        <v>3.6231139602895799E-3</v>
+      </c>
+      <c r="BW1">
+        <v>3.4838512308770601E-3</v>
+      </c>
+      <c r="BX1">
+        <v>3.2852306167969101E-3</v>
+      </c>
+      <c r="BY1">
+        <v>3.03866709586983E-3</v>
+      </c>
+      <c r="BZ1">
+        <v>2.7167647213261498E-3</v>
+      </c>
+      <c r="CA1">
+        <v>2.38116437339762E-3</v>
+      </c>
+      <c r="CB1">
+        <v>2.0820919544953299E-3</v>
+      </c>
+      <c r="CC1">
+        <v>1.81954746461928E-3</v>
+      </c>
+      <c r="CD1">
+        <v>1.5113430634604299E-3</v>
+      </c>
+      <c r="CE1">
+        <v>1.20085566673744E-3</v>
+      </c>
+      <c r="CF1">
+        <v>9.2004721234826604E-4</v>
+      </c>
+      <c r="CG1">
+        <v>7.46539549473655E-4</v>
+      </c>
+      <c r="CH1">
+        <v>6.1412580675355803E-4</v>
+      </c>
+      <c r="CI1">
+        <v>4.9997602854657695E-4</v>
+      </c>
+      <c r="CJ1">
+        <v>3.81260259211316E-4</v>
+      </c>
+      <c r="CK1">
+        <v>3.0592140559470898E-4</v>
+      </c>
+      <c r="CL1">
+        <v>2.5112951205535802E-4</v>
+      </c>
+      <c r="CM1">
+        <v>2.19167574157403E-4</v>
+      </c>
+      <c r="CN1">
+        <v>1.94054622951868E-4</v>
+      </c>
+      <c r="CO1">
+        <v>1.8035664956703E-4</v>
+      </c>
+      <c r="CP1">
+        <v>1.6894167174633199E-4</v>
+      </c>
+      <c r="CQ1">
+        <v>1.4839471166907501E-4</v>
+      </c>
+      <c r="CR1">
+        <v>1.4382872054079601E-4</v>
+      </c>
+      <c r="CS1">
+        <v>1.3697973384837699E-4</v>
+      </c>
+      <c r="CT1">
+        <v>1.23281760463539E-4</v>
+      </c>
+      <c r="CU1">
+        <v>1.02734800386283E-4</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>8.9036827001445101E-5</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>8.9036827001445101E-5</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>7.5338853616607401E-5</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>5.70748891034905E-5</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>3.1961937897954702E-5</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>2.05469600772566E-5</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>1.14149778206981E-5</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>1.14149778206981E-5</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>9.1319822565584793E-6</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>9.1319822565584793E-6</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>4.5659911282792397E-6</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>2.2829955641396198E-6</v>
+      </c>
+      <c r="DH1">
+        <v>0</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>2.2829955641396198E-6</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>6.8489866924188599E-6</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>1.14149778206981E-5</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>1.14149778206981E-5</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>6.8489866924188599E-6</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>2.2829955641396198E-6</v>
+      </c>
+      <c r="DO1">
+        <v>0</v>
+      </c>
+      <c r="DP1">
+        <v>0</v>
+      </c>
+      <c r="DQ1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0.45377961330621103</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.302522025199705</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15126443709319801</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.8489866924188497E-6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.5659911282792303E-6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.2829955641396101E-6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.2829955641396101E-6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9.1319822565584708E-6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.0546960077256498E-5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.7395946769675399E-5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>4.3376915718652699E-5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>7.5338853616607401E-5</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.23281760463539E-4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1.5524369836149399E-4</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1.71224667310471E-4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.8263964513116901E-4</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2.2145056972154299E-4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.6482748544019502E-4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>3.4473233018508201E-4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4.1322219710927002E-4</v>
+      </c>
+      <c r="V2" s="2">
+        <v>5.0910801080313495E-4</v>
+      </c>
+      <c r="W2" s="2">
+        <v>5.6846589547076502E-4</v>
+      </c>
+      <c r="X2" s="2">
+        <v>6.18691797881836E-4</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>6.3010677570253396E-4</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>6.4608774465151205E-4</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>6.5978571803634899E-4</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>6.6435170916462902E-4</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>6.50653735779791E-4</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>6.6435170916462902E-4</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>7.1914360270397895E-4</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>7.7165250067919098E-4</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>7.8306747849988905E-4</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>7.4425655390951504E-4</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>7.1686060713983997E-4</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>6.9403065149844395E-4</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>7.1229461601156102E-4</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>7.0087963819086198E-4</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>6.8489866924188497E-4</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>6.1640880231769702E-4</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>5.6389990434248499E-4</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>5.2052298862383301E-4</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>4.9769303298243602E-4</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>4.5888210839206299E-4</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>4.0180721928857201E-4</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>3.5843030356991998E-4</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>3.6984528139061799E-4</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>4.1778818823755E-4</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>4.7714607290518001E-4</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>4.9769303298243602E-4</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>4.8399505959759902E-4</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>4.4061814387894602E-4</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>4.1322219710927002E-4</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>4.4061814387894602E-4</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>4.9997602854657598E-4</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>5.6846589547076502E-4</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>6.3923875795909304E-4</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>7.4882254503779398E-4</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>9.1548122121998699E-4</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>1.1346487953773901E-3</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1.3629483517913501E-3</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>1.5889649126411701E-3</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>1.8035664956702899E-3</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>2.05241301216151E-3</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>2.3240894842941301E-3</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>2.6185959120681398E-3</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>2.9199513265345698E-3</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>3.2464196922065299E-3</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>3.4792852397487698E-3</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>3.6071329913405898E-3</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>3.64366092036683E-3</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>3.6801888493930598E-3</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>3.7030188050344599E-3</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>3.6231139602895699E-3</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>3.4838512308770502E-3</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>3.2852306167969101E-3</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>3.03866709586983E-3</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>2.7167647213261399E-3</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>2.38116437339762E-3</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>2.0820919544953299E-3</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>1.8195474646192701E-3</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>1.5113430634604199E-3</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>1.20085566673743E-3</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>9.2004721234826604E-4</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>7.46539549473655E-4</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>6.1412580675355695E-4</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>4.9997602854657598E-4</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>3.81260259211316E-4</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>3.0592140559470801E-4</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>2.5112951205535802E-4</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>2.19167574157403E-4</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>1.9405462295186699E-4</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>1.80356649567029E-4</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>1.6894167174633101E-4</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>1.4839471166907501E-4</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>1.43828720540795E-4</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>1.3697973384837699E-4</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>1.23281760463539E-4</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>1.02734800386282E-4</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>8.9036827001445101E-5</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>8.9036827001445101E-5</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>7.5338853616607401E-5</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>5.7074889103490399E-5</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>3.19619378979546E-5</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>2.0546960077256498E-5</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>1.1414977820698E-5</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>1.1414977820698E-5</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>9.1319822565584708E-6</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>9.1319822565584708E-6</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>4.5659911282792303E-6</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>2.2829955641396101E-6</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>2.2829955641396101E-6</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>6.8489866924188497E-6</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>1.1414977820698E-5</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>1.1414977820698E-5</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>6.8489866924188497E-6</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>2.2829955641396101E-6</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>IF(A1&lt;&gt;A2,"NOT MATCH", "SAMA")</f>
+        <v>SAMA</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:BM3" si="0">IF(B1&lt;&gt;B2,"NOT MATCH", "SAMA")</f>
+        <v>SAMA</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AO3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AR3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AS3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AV3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AW3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AX3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="AY3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BA3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BB3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BC3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BD3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BE3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BF3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BG3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BH3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BI3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BK3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BL3" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BM3" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BN3" t="str">
+        <f t="shared" ref="BN3:DQ3" si="1">IF(BN1&lt;&gt;BN2,"NOT MATCH", "SAMA")</f>
+        <v>SAMA</v>
+      </c>
+      <c r="BO3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BP3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BQ3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BR3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BS3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BT3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BU3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BV3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BW3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="BX3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BY3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="BZ3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CA3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CB3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CC3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CD3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CE3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CF3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CG3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CH3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CI3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CJ3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CK3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CL3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CM3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CN3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CO3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CP3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CQ3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CR3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CS3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CT3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CU3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CV3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CW3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CX3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="CY3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="CZ3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DA3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DB3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DC3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DD3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DE3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DF3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DG3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DH3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="DI3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DJ3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DK3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DL3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DM3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DN3" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT MATCH</v>
+      </c>
+      <c r="DO3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="DP3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
+      </c>
+      <c r="DQ3" t="str">
+        <f t="shared" si="1"/>
+        <v>SAMA</v>
       </c>
     </row>
   </sheetData>

--- a/mbak Raras/Port-Py/temp knowledge.xlsx
+++ b/mbak Raras/Port-Py/temp knowledge.xlsx
@@ -8,16 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tugas Akhir\mbak Raras\Port-Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14540C6C-D378-4E50-9554-834FA860E0E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD2BB2-FE72-4529-94AF-47F3A9905B34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
     <sheet name="SUM" sheetId="5" r:id="rId2"/>
+    <sheet name="Find" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3559,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD7F89-8738-4A8B-8FB1-62F9821E088F}">
   <dimension ref="A1:DQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
+    <sheetView topLeftCell="CX1" workbookViewId="0">
       <selection activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
@@ -4807,4 +4819,1191 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C895271F-2A5A-47AA-86EF-D1D211F54E51}">
+  <dimension ref="A1:DM3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
+      <selection activeCell="DG3" sqref="DG3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1">
+        <v>36</v>
+      </c>
+      <c r="AK1">
+        <v>37</v>
+      </c>
+      <c r="AL1">
+        <v>38</v>
+      </c>
+      <c r="AM1">
+        <v>39</v>
+      </c>
+      <c r="AN1">
+        <v>40</v>
+      </c>
+      <c r="AO1">
+        <v>41</v>
+      </c>
+      <c r="AP1">
+        <v>42</v>
+      </c>
+      <c r="AQ1">
+        <v>43</v>
+      </c>
+      <c r="AR1">
+        <v>44</v>
+      </c>
+      <c r="AS1">
+        <v>45</v>
+      </c>
+      <c r="AT1">
+        <v>46</v>
+      </c>
+      <c r="AU1">
+        <v>47</v>
+      </c>
+      <c r="AV1">
+        <v>48</v>
+      </c>
+      <c r="AW1">
+        <v>49</v>
+      </c>
+      <c r="AX1">
+        <v>50</v>
+      </c>
+      <c r="AY1">
+        <v>51</v>
+      </c>
+      <c r="AZ1">
+        <v>52</v>
+      </c>
+      <c r="BA1">
+        <v>53</v>
+      </c>
+      <c r="BB1">
+        <v>54</v>
+      </c>
+      <c r="BC1">
+        <v>55</v>
+      </c>
+      <c r="BD1">
+        <v>56</v>
+      </c>
+      <c r="BE1">
+        <v>57</v>
+      </c>
+      <c r="BF1">
+        <v>58</v>
+      </c>
+      <c r="BG1">
+        <v>59</v>
+      </c>
+      <c r="BH1">
+        <v>60</v>
+      </c>
+      <c r="BI1">
+        <v>61</v>
+      </c>
+      <c r="BJ1">
+        <v>62</v>
+      </c>
+      <c r="BK1">
+        <v>63</v>
+      </c>
+      <c r="BL1">
+        <v>64</v>
+      </c>
+      <c r="BM1">
+        <v>65</v>
+      </c>
+      <c r="BN1">
+        <v>66</v>
+      </c>
+      <c r="BO1">
+        <v>67</v>
+      </c>
+      <c r="BP1">
+        <v>68</v>
+      </c>
+      <c r="BQ1">
+        <v>69</v>
+      </c>
+      <c r="BR1">
+        <v>70</v>
+      </c>
+      <c r="BS1">
+        <v>71</v>
+      </c>
+      <c r="BT1">
+        <v>72</v>
+      </c>
+      <c r="BU1">
+        <v>73</v>
+      </c>
+      <c r="BV1">
+        <v>74</v>
+      </c>
+      <c r="BW1">
+        <v>75</v>
+      </c>
+      <c r="BX1">
+        <v>76</v>
+      </c>
+      <c r="BY1">
+        <v>77</v>
+      </c>
+      <c r="BZ1">
+        <v>78</v>
+      </c>
+      <c r="CA1">
+        <v>79</v>
+      </c>
+      <c r="CB1">
+        <v>80</v>
+      </c>
+      <c r="CC1">
+        <v>81</v>
+      </c>
+      <c r="CD1">
+        <v>82</v>
+      </c>
+      <c r="CE1">
+        <v>83</v>
+      </c>
+      <c r="CF1">
+        <v>84</v>
+      </c>
+      <c r="CG1">
+        <v>85</v>
+      </c>
+      <c r="CH1">
+        <v>86</v>
+      </c>
+      <c r="CI1">
+        <v>87</v>
+      </c>
+      <c r="CJ1">
+        <v>88</v>
+      </c>
+      <c r="CK1">
+        <v>89</v>
+      </c>
+      <c r="CL1">
+        <v>90</v>
+      </c>
+      <c r="CM1">
+        <v>91</v>
+      </c>
+      <c r="CN1">
+        <v>92</v>
+      </c>
+      <c r="CO1">
+        <v>93</v>
+      </c>
+      <c r="CP1">
+        <v>94</v>
+      </c>
+      <c r="CQ1">
+        <v>95</v>
+      </c>
+      <c r="CR1">
+        <v>96</v>
+      </c>
+      <c r="CS1">
+        <v>97</v>
+      </c>
+      <c r="CT1">
+        <v>98</v>
+      </c>
+      <c r="CU1">
+        <v>99</v>
+      </c>
+      <c r="CV1">
+        <v>100</v>
+      </c>
+      <c r="CW1">
+        <v>101</v>
+      </c>
+      <c r="CX1">
+        <v>102</v>
+      </c>
+      <c r="CY1">
+        <v>103</v>
+      </c>
+      <c r="CZ1">
+        <v>104</v>
+      </c>
+      <c r="DA1">
+        <v>105</v>
+      </c>
+      <c r="DB1">
+        <v>106</v>
+      </c>
+      <c r="DC1">
+        <v>107</v>
+      </c>
+      <c r="DD1">
+        <v>108</v>
+      </c>
+      <c r="DE1">
+        <v>109</v>
+      </c>
+      <c r="DF1">
+        <v>110</v>
+      </c>
+      <c r="DG1">
+        <v>111</v>
+      </c>
+      <c r="DH1">
+        <v>113</v>
+      </c>
+      <c r="DI1">
+        <v>114</v>
+      </c>
+      <c r="DJ1">
+        <v>115</v>
+      </c>
+      <c r="DK1">
+        <v>116</v>
+      </c>
+      <c r="DL1">
+        <v>117</v>
+      </c>
+      <c r="DM1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>27</v>
+      </c>
+      <c r="AC2">
+        <v>28</v>
+      </c>
+      <c r="AD2">
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <v>30</v>
+      </c>
+      <c r="AF2">
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <v>33</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
+      </c>
+      <c r="AJ2">
+        <v>35</v>
+      </c>
+      <c r="AK2">
+        <v>36</v>
+      </c>
+      <c r="AL2">
+        <v>37</v>
+      </c>
+      <c r="AM2">
+        <v>38</v>
+      </c>
+      <c r="AN2">
+        <v>39</v>
+      </c>
+      <c r="AO2">
+        <v>40</v>
+      </c>
+      <c r="AP2">
+        <v>41</v>
+      </c>
+      <c r="AQ2">
+        <v>42</v>
+      </c>
+      <c r="AR2">
+        <v>43</v>
+      </c>
+      <c r="AS2">
+        <v>44</v>
+      </c>
+      <c r="AT2">
+        <v>45</v>
+      </c>
+      <c r="AU2">
+        <v>46</v>
+      </c>
+      <c r="AV2">
+        <v>47</v>
+      </c>
+      <c r="AW2">
+        <v>48</v>
+      </c>
+      <c r="AX2">
+        <v>49</v>
+      </c>
+      <c r="AY2">
+        <v>50</v>
+      </c>
+      <c r="AZ2">
+        <v>51</v>
+      </c>
+      <c r="BA2">
+        <v>52</v>
+      </c>
+      <c r="BB2">
+        <v>53</v>
+      </c>
+      <c r="BC2">
+        <v>54</v>
+      </c>
+      <c r="BD2">
+        <v>55</v>
+      </c>
+      <c r="BE2">
+        <v>56</v>
+      </c>
+      <c r="BF2">
+        <v>57</v>
+      </c>
+      <c r="BG2">
+        <v>58</v>
+      </c>
+      <c r="BH2">
+        <v>59</v>
+      </c>
+      <c r="BI2">
+        <v>60</v>
+      </c>
+      <c r="BJ2">
+        <v>61</v>
+      </c>
+      <c r="BK2">
+        <v>62</v>
+      </c>
+      <c r="BL2">
+        <v>63</v>
+      </c>
+      <c r="BM2">
+        <v>64</v>
+      </c>
+      <c r="BN2">
+        <v>65</v>
+      </c>
+      <c r="BO2">
+        <v>66</v>
+      </c>
+      <c r="BP2">
+        <v>67</v>
+      </c>
+      <c r="BQ2">
+        <v>68</v>
+      </c>
+      <c r="BR2">
+        <v>69</v>
+      </c>
+      <c r="BS2">
+        <v>70</v>
+      </c>
+      <c r="BT2">
+        <v>71</v>
+      </c>
+      <c r="BU2">
+        <v>72</v>
+      </c>
+      <c r="BV2">
+        <v>73</v>
+      </c>
+      <c r="BW2">
+        <v>74</v>
+      </c>
+      <c r="BX2">
+        <v>75</v>
+      </c>
+      <c r="BY2">
+        <v>76</v>
+      </c>
+      <c r="BZ2">
+        <v>77</v>
+      </c>
+      <c r="CA2">
+        <v>78</v>
+      </c>
+      <c r="CB2">
+        <v>79</v>
+      </c>
+      <c r="CC2">
+        <v>80</v>
+      </c>
+      <c r="CD2">
+        <v>81</v>
+      </c>
+      <c r="CE2">
+        <v>82</v>
+      </c>
+      <c r="CF2">
+        <v>83</v>
+      </c>
+      <c r="CG2">
+        <v>84</v>
+      </c>
+      <c r="CH2">
+        <v>85</v>
+      </c>
+      <c r="CI2">
+        <v>86</v>
+      </c>
+      <c r="CJ2">
+        <v>87</v>
+      </c>
+      <c r="CK2">
+        <v>88</v>
+      </c>
+      <c r="CL2">
+        <v>89</v>
+      </c>
+      <c r="CM2">
+        <v>90</v>
+      </c>
+      <c r="CN2">
+        <v>91</v>
+      </c>
+      <c r="CO2">
+        <v>92</v>
+      </c>
+      <c r="CP2">
+        <v>93</v>
+      </c>
+      <c r="CQ2">
+        <v>94</v>
+      </c>
+      <c r="CR2">
+        <v>95</v>
+      </c>
+      <c r="CS2">
+        <v>96</v>
+      </c>
+      <c r="CT2">
+        <v>97</v>
+      </c>
+      <c r="CU2">
+        <v>98</v>
+      </c>
+      <c r="CV2">
+        <v>99</v>
+      </c>
+      <c r="CW2">
+        <v>100</v>
+      </c>
+      <c r="CX2">
+        <v>101</v>
+      </c>
+      <c r="CY2">
+        <v>102</v>
+      </c>
+      <c r="CZ2">
+        <v>103</v>
+      </c>
+      <c r="DA2">
+        <v>104</v>
+      </c>
+      <c r="DB2">
+        <v>105</v>
+      </c>
+      <c r="DC2">
+        <v>106</v>
+      </c>
+      <c r="DD2">
+        <v>107</v>
+      </c>
+      <c r="DE2">
+        <v>108</v>
+      </c>
+      <c r="DF2">
+        <v>109</v>
+      </c>
+      <c r="DG2">
+        <v>110</v>
+      </c>
+      <c r="DH2">
+        <v>112</v>
+      </c>
+      <c r="DI2">
+        <v>113</v>
+      </c>
+      <c r="DJ2">
+        <v>114</v>
+      </c>
+      <c r="DK2">
+        <v>115</v>
+      </c>
+      <c r="DL2">
+        <v>116</v>
+      </c>
+      <c r="DM2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:117" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f>IF((B1)=(B2+1), "BENER", "SALAH")</f>
+        <v>BENER</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:BN3" si="0">IF((C1)=(C2+1), "BENER", "SALAH")</f>
+        <v>BENER</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AO3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AR3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AS3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AV3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AW3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AX3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AY3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="AZ3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BA3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BB3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BC3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BD3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BE3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BF3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BG3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BH3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BI3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BK3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BL3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BM3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BN3" t="str">
+        <f t="shared" si="0"/>
+        <v>BENER</v>
+      </c>
+      <c r="BO3" t="str">
+        <f t="shared" ref="BO3:DM3" si="1">IF((BO1)=(BO2+1), "BENER", "SALAH")</f>
+        <v>BENER</v>
+      </c>
+      <c r="BP3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BQ3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BR3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BS3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BT3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BU3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BV3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BW3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BX3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BY3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="BZ3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CA3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CB3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CC3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CD3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CE3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CF3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CG3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CH3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CI3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CJ3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CK3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CL3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CM3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CN3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CO3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CP3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CQ3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CR3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CS3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CT3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CU3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CV3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CW3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CX3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CY3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="CZ3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DA3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DB3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DC3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DD3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DE3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DF3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DG3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DH3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DI3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DJ3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DK3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DL3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+      <c r="DM3" t="str">
+        <f t="shared" si="1"/>
+        <v>BENER</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>